--- a/user-data/under-5-mortality/under-5-mortality.xlsx
+++ b/user-data/under-5-mortality/under-5-mortality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="453">
   <si>
     <t>id</t>
   </si>
@@ -1354,9 +1354,6 @@
     <t>Source: World Bank World Development Indicators</t>
   </si>
   <si>
-    <t>Source-link: NA</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -1739,32 +1736,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13">
@@ -1780,11 +1777,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>452</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>453</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/under-5-mortality/under-5-mortality.xlsx
+++ b/user-data/under-5-mortality/under-5-mortality.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -1360,7 +1360,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/under-5-mortality/under-5-mortality.xlsx
+++ b/user-data/under-5-mortality/under-5-mortality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="454">
   <si>
     <t>id</t>
   </si>
@@ -1366,7 +1366,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1779,6 +1782,11 @@
         <v>452</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>453</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/under-5-mortality/under-5-mortality.xlsx
+++ b/user-data/under-5-mortality/under-5-mortality.xlsx
@@ -67,7 +67,7 @@
     <t>AG</t>
   </si>
   <si>
-    <t>Antigua and Barbuda</t>
+    <t>Antigua &amp; Barbuda</t>
   </si>
   <si>
     <t>AR</t>
@@ -175,7 +175,7 @@
     <t>BA</t>
   </si>
   <si>
-    <t>Bosnia and Herzegovina</t>
+    <t>Bosnia &amp; Herzegovina</t>
   </si>
   <si>
     <t>BW</t>
@@ -212,12 +212,6 @@
   </si>
   <si>
     <t>Burundi</t>
-  </si>
-  <si>
-    <t>CI</t>
-  </si>
-  <si>
-    <t>CÃ´te d'Ivoire</t>
   </si>
   <si>
     <t>KH</t>
@@ -298,6 +292,12 @@
     <t>Costa Rica</t>
   </si>
   <si>
+    <t>CI</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
     <t>HR</t>
   </si>
   <si>
@@ -313,7 +313,7 @@
     <t>CW</t>
   </si>
   <si>
-    <t>CuraÃ§ao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>CY</t>
@@ -991,7 +991,7 @@
     <t>VC</t>
   </si>
   <si>
-    <t>Saint Vincent and the Grenadines</t>
+    <t>Saint Vincent &amp; the Grenadines</t>
   </si>
   <si>
     <t>WS</t>
@@ -1009,7 +1009,7 @@
     <t>ST</t>
   </si>
   <si>
-    <t>Sao Tome and Principe</t>
+    <t>Sao Tome &amp; Principe</t>
   </si>
   <si>
     <t>SA</t>
@@ -1183,7 +1183,7 @@
     <t>TT</t>
   </si>
   <si>
-    <t>Trinidad and Tobago</t>
+    <t>Trinidad &amp; Tobago</t>
   </si>
   <si>
     <t>TN</t>
@@ -1207,7 +1207,7 @@
     <t>TC</t>
   </si>
   <si>
-    <t>Turks and Caicos Islands</t>
+    <t>Turks &amp; Caicos Islands</t>
   </si>
   <si>
     <t>TV</t>
@@ -1228,16 +1228,16 @@
     <t>Uganda</t>
   </si>
   <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>UK</t>
+  </si>
+  <si>
     <t>UA</t>
   </si>
   <si>
     <t>Ukraine</t>
-  </si>
-  <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>United Kingdom</t>
   </si>
   <si>
     <t>UY</t>
@@ -1375,7 +1375,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>
@@ -7818,7 +7818,7 @@
         <v>2000</v>
       </c>
       <c r="D436" t="n">
-        <v>146.1</v>
+        <v>110.5</v>
       </c>
     </row>
     <row r="437">
@@ -7832,7 +7832,7 @@
         <v>2001</v>
       </c>
       <c r="D437" t="n">
-        <v>143.4</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="438">
@@ -7846,7 +7846,7 @@
         <v>2002</v>
       </c>
       <c r="D438" t="n">
-        <v>140.3</v>
+        <v>89.7</v>
       </c>
     </row>
     <row r="439">
@@ -7860,7 +7860,7 @@
         <v>2003</v>
       </c>
       <c r="D439" t="n">
-        <v>136.9</v>
+        <v>79.2</v>
       </c>
     </row>
     <row r="440">
@@ -7874,7 +7874,7 @@
         <v>2004</v>
       </c>
       <c r="D440" t="n">
-        <v>133.2</v>
+        <v>70.5</v>
       </c>
     </row>
     <row r="441">
@@ -7888,7 +7888,7 @@
         <v>2005</v>
       </c>
       <c r="D441" t="n">
-        <v>129.3</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="442">
@@ -7902,7 +7902,7 @@
         <v>2006</v>
       </c>
       <c r="D442" t="n">
-        <v>125.4</v>
+        <v>57.9</v>
       </c>
     </row>
     <row r="443">
@@ -7916,7 +7916,7 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v>121.4</v>
+        <v>53.4</v>
       </c>
     </row>
     <row r="444">
@@ -7930,7 +7930,7 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>117</v>
+        <v>49.5</v>
       </c>
     </row>
     <row r="445">
@@ -7944,7 +7944,7 @@
         <v>2009</v>
       </c>
       <c r="D445" t="n">
-        <v>113.1</v>
+        <v>46.4</v>
       </c>
     </row>
     <row r="446">
@@ -7958,7 +7958,7 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v>109.3</v>
+        <v>43.8</v>
       </c>
     </row>
     <row r="447">
@@ -7972,7 +7972,7 @@
         <v>2011</v>
       </c>
       <c r="D447" t="n">
-        <v>106.2</v>
+        <v>41.6</v>
       </c>
     </row>
     <row r="448">
@@ -7986,7 +7986,7 @@
         <v>2012</v>
       </c>
       <c r="D448" t="n">
-        <v>103</v>
+        <v>39.7</v>
       </c>
     </row>
     <row r="449">
@@ -8000,7 +8000,7 @@
         <v>2013</v>
       </c>
       <c r="D449" t="n">
-        <v>100</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="450">
@@ -8014,7 +8014,7 @@
         <v>2000</v>
       </c>
       <c r="D450" t="n">
-        <v>110.5</v>
+        <v>151.2</v>
       </c>
     </row>
     <row r="451">
@@ -8028,7 +8028,7 @@
         <v>2001</v>
       </c>
       <c r="D451" t="n">
-        <v>100.8</v>
+        <v>146.6</v>
       </c>
     </row>
     <row r="452">
@@ -8042,7 +8042,7 @@
         <v>2002</v>
       </c>
       <c r="D452" t="n">
-        <v>89.7</v>
+        <v>141.2</v>
       </c>
     </row>
     <row r="453">
@@ -8056,7 +8056,7 @@
         <v>2003</v>
       </c>
       <c r="D453" t="n">
-        <v>79.2</v>
+        <v>135.7</v>
       </c>
     </row>
     <row r="454">
@@ -8070,7 +8070,7 @@
         <v>2004</v>
       </c>
       <c r="D454" t="n">
-        <v>70.5</v>
+        <v>130.6</v>
       </c>
     </row>
     <row r="455">
@@ -8084,7 +8084,7 @@
         <v>2005</v>
       </c>
       <c r="D455" t="n">
-        <v>63.6</v>
+        <v>125.8</v>
       </c>
     </row>
     <row r="456">
@@ -8098,7 +8098,7 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v>57.9</v>
+        <v>121.3</v>
       </c>
     </row>
     <row r="457">
@@ -8112,7 +8112,7 @@
         <v>2007</v>
       </c>
       <c r="D457" t="n">
-        <v>53.4</v>
+        <v>117.1</v>
       </c>
     </row>
     <row r="458">
@@ -8126,7 +8126,7 @@
         <v>2008</v>
       </c>
       <c r="D458" t="n">
-        <v>49.5</v>
+        <v>112.9</v>
       </c>
     </row>
     <row r="459">
@@ -8140,7 +8140,7 @@
         <v>2009</v>
       </c>
       <c r="D459" t="n">
-        <v>46.4</v>
+        <v>108.9</v>
       </c>
     </row>
     <row r="460">
@@ -8154,7 +8154,7 @@
         <v>2010</v>
       </c>
       <c r="D460" t="n">
-        <v>43.8</v>
+        <v>104.4</v>
       </c>
     </row>
     <row r="461">
@@ -8168,7 +8168,7 @@
         <v>2011</v>
       </c>
       <c r="D461" t="n">
-        <v>41.6</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="462">
@@ -8182,7 +8182,7 @@
         <v>2012</v>
       </c>
       <c r="D462" t="n">
-        <v>39.7</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="463">
@@ -8196,7 +8196,7 @@
         <v>2013</v>
       </c>
       <c r="D463" t="n">
-        <v>37.9</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="464">
@@ -8210,7 +8210,7 @@
         <v>2000</v>
       </c>
       <c r="D464" t="n">
-        <v>151.2</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="465">
@@ -8224,7 +8224,7 @@
         <v>2001</v>
       </c>
       <c r="D465" t="n">
-        <v>146.6</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="466">
@@ -8238,7 +8238,7 @@
         <v>2002</v>
       </c>
       <c r="D466" t="n">
-        <v>141.2</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="467">
@@ -8252,7 +8252,7 @@
         <v>2003</v>
       </c>
       <c r="D467" t="n">
-        <v>135.7</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="468">
@@ -8266,7 +8266,7 @@
         <v>2004</v>
       </c>
       <c r="D468" t="n">
-        <v>130.6</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="469">
@@ -8280,7 +8280,7 @@
         <v>2005</v>
       </c>
       <c r="D469" t="n">
-        <v>125.8</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="470">
@@ -8294,7 +8294,7 @@
         <v>2006</v>
       </c>
       <c r="D470" t="n">
-        <v>121.3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="471">
@@ -8308,7 +8308,7 @@
         <v>2007</v>
       </c>
       <c r="D471" t="n">
-        <v>117.1</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="472">
@@ -8322,7 +8322,7 @@
         <v>2008</v>
       </c>
       <c r="D472" t="n">
-        <v>112.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="473">
@@ -8336,7 +8336,7 @@
         <v>2009</v>
       </c>
       <c r="D473" t="n">
-        <v>108.9</v>
+        <v>5.7</v>
       </c>
     </row>
     <row r="474">
@@ -8350,7 +8350,7 @@
         <v>2010</v>
       </c>
       <c r="D474" t="n">
-        <v>104.4</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="475">
@@ -8364,7 +8364,7 @@
         <v>2011</v>
       </c>
       <c r="D475" t="n">
-        <v>100.8</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="476">
@@ -8378,7 +8378,7 @@
         <v>2012</v>
       </c>
       <c r="D476" t="n">
-        <v>97.3</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="477">
@@ -8392,7 +8392,7 @@
         <v>2013</v>
       </c>
       <c r="D477" t="n">
-        <v>94.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="478">
@@ -8406,7 +8406,7 @@
         <v>2000</v>
       </c>
       <c r="D478" t="n">
-        <v>6.2</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="479">
@@ -8420,7 +8420,7 @@
         <v>2001</v>
       </c>
       <c r="D479" t="n">
-        <v>6.2</v>
+        <v>32</v>
       </c>
     </row>
     <row r="480">
@@ -8434,7 +8434,7 @@
         <v>2002</v>
       </c>
       <c r="D480" t="n">
-        <v>6.2</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="481">
@@ -8448,7 +8448,7 @@
         <v>2003</v>
       </c>
       <c r="D481" t="n">
-        <v>6.1</v>
+        <v>28.4</v>
       </c>
     </row>
     <row r="482">
@@ -8462,7 +8462,7 @@
         <v>2004</v>
       </c>
       <c r="D482" t="n">
-        <v>6.1</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="483">
@@ -8476,7 +8476,7 @@
         <v>2005</v>
       </c>
       <c r="D483" t="n">
-        <v>6.1</v>
+        <v>27.7</v>
       </c>
     </row>
     <row r="484">
@@ -8490,7 +8490,7 @@
         <v>2006</v>
       </c>
       <c r="D484" t="n">
-        <v>6</v>
+        <v>27.9</v>
       </c>
     </row>
     <row r="485">
@@ -8504,7 +8504,7 @@
         <v>2007</v>
       </c>
       <c r="D485" t="n">
-        <v>5.9</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="486">
@@ -8518,7 +8518,7 @@
         <v>2008</v>
       </c>
       <c r="D486" t="n">
-        <v>5.8</v>
+        <v>28.3</v>
       </c>
     </row>
     <row r="487">
@@ -8532,7 +8532,7 @@
         <v>2009</v>
       </c>
       <c r="D487" t="n">
-        <v>5.7</v>
+        <v>28.2</v>
       </c>
     </row>
     <row r="488">
@@ -8546,7 +8546,7 @@
         <v>2010</v>
       </c>
       <c r="D488" t="n">
-        <v>5.6</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="489">
@@ -8560,7 +8560,7 @@
         <v>2011</v>
       </c>
       <c r="D489" t="n">
-        <v>5.4</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="490">
@@ -8574,7 +8574,7 @@
         <v>2012</v>
       </c>
       <c r="D490" t="n">
-        <v>5.3</v>
+        <v>26.7</v>
       </c>
     </row>
     <row r="491">
@@ -8588,7 +8588,7 @@
         <v>2013</v>
       </c>
       <c r="D491" t="n">
-        <v>5.2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="492">
@@ -8602,7 +8602,7 @@
         <v>2000</v>
       </c>
       <c r="D492" t="n">
-        <v>35.3</v>
+        <v>174.1</v>
       </c>
     </row>
     <row r="493">
@@ -8616,7 +8616,7 @@
         <v>2001</v>
       </c>
       <c r="D493" t="n">
-        <v>32</v>
+        <v>173.5</v>
       </c>
     </row>
     <row r="494">
@@ -8630,7 +8630,7 @@
         <v>2002</v>
       </c>
       <c r="D494" t="n">
-        <v>29.7</v>
+        <v>172.8</v>
       </c>
     </row>
     <row r="495">
@@ -8644,7 +8644,7 @@
         <v>2003</v>
       </c>
       <c r="D495" t="n">
-        <v>28.4</v>
+        <v>171.7</v>
       </c>
     </row>
     <row r="496">
@@ -8658,7 +8658,7 @@
         <v>2004</v>
       </c>
       <c r="D496" t="n">
-        <v>27.8</v>
+        <v>170.5</v>
       </c>
     </row>
     <row r="497">
@@ -8672,7 +8672,7 @@
         <v>2005</v>
       </c>
       <c r="D497" t="n">
-        <v>27.7</v>
+        <v>168.9</v>
       </c>
     </row>
     <row r="498">
@@ -8686,7 +8686,7 @@
         <v>2006</v>
       </c>
       <c r="D498" t="n">
-        <v>27.9</v>
+        <v>166.7</v>
       </c>
     </row>
     <row r="499">
@@ -8700,7 +8700,7 @@
         <v>2007</v>
       </c>
       <c r="D499" t="n">
-        <v>28.2</v>
+        <v>164.1</v>
       </c>
     </row>
     <row r="500">
@@ -8714,7 +8714,7 @@
         <v>2008</v>
       </c>
       <c r="D500" t="n">
-        <v>28.3</v>
+        <v>160.8</v>
       </c>
     </row>
     <row r="501">
@@ -8728,7 +8728,7 @@
         <v>2009</v>
       </c>
       <c r="D501" t="n">
-        <v>28.2</v>
+        <v>156.9</v>
       </c>
     </row>
     <row r="502">
@@ -8742,7 +8742,7 @@
         <v>2010</v>
       </c>
       <c r="D502" t="n">
-        <v>27.8</v>
+        <v>152.6</v>
       </c>
     </row>
     <row r="503">
@@ -8756,7 +8756,7 @@
         <v>2011</v>
       </c>
       <c r="D503" t="n">
-        <v>27.3</v>
+        <v>147.6</v>
       </c>
     </row>
     <row r="504">
@@ -8770,7 +8770,7 @@
         <v>2012</v>
       </c>
       <c r="D504" t="n">
-        <v>26.7</v>
+        <v>142.7</v>
       </c>
     </row>
     <row r="505">
@@ -8784,7 +8784,7 @@
         <v>2013</v>
       </c>
       <c r="D505" t="n">
-        <v>26</v>
+        <v>139.2</v>
       </c>
     </row>
     <row r="506">
@@ -8797,9 +8797,7 @@
       <c r="C506" t="n">
         <v>2000</v>
       </c>
-      <c r="D506" t="n">
-        <v>174.1</v>
-      </c>
+      <c r="D506"/>
     </row>
     <row r="507">
       <c r="A507" t="s">
@@ -8811,9 +8809,7 @@
       <c r="C507" t="n">
         <v>2001</v>
       </c>
-      <c r="D507" t="n">
-        <v>173.5</v>
-      </c>
+      <c r="D507"/>
     </row>
     <row r="508">
       <c r="A508" t="s">
@@ -8825,9 +8821,7 @@
       <c r="C508" t="n">
         <v>2002</v>
       </c>
-      <c r="D508" t="n">
-        <v>172.8</v>
-      </c>
+      <c r="D508"/>
     </row>
     <row r="509">
       <c r="A509" t="s">
@@ -8839,9 +8833,7 @@
       <c r="C509" t="n">
         <v>2003</v>
       </c>
-      <c r="D509" t="n">
-        <v>171.7</v>
-      </c>
+      <c r="D509"/>
     </row>
     <row r="510">
       <c r="A510" t="s">
@@ -8853,9 +8845,7 @@
       <c r="C510" t="n">
         <v>2004</v>
       </c>
-      <c r="D510" t="n">
-        <v>170.5</v>
-      </c>
+      <c r="D510"/>
     </row>
     <row r="511">
       <c r="A511" t="s">
@@ -8867,9 +8857,7 @@
       <c r="C511" t="n">
         <v>2005</v>
       </c>
-      <c r="D511" t="n">
-        <v>168.9</v>
-      </c>
+      <c r="D511"/>
     </row>
     <row r="512">
       <c r="A512" t="s">
@@ -8881,9 +8869,7 @@
       <c r="C512" t="n">
         <v>2006</v>
       </c>
-      <c r="D512" t="n">
-        <v>166.7</v>
-      </c>
+      <c r="D512"/>
     </row>
     <row r="513">
       <c r="A513" t="s">
@@ -8895,9 +8881,7 @@
       <c r="C513" t="n">
         <v>2007</v>
       </c>
-      <c r="D513" t="n">
-        <v>164.1</v>
-      </c>
+      <c r="D513"/>
     </row>
     <row r="514">
       <c r="A514" t="s">
@@ -8909,9 +8893,7 @@
       <c r="C514" t="n">
         <v>2008</v>
       </c>
-      <c r="D514" t="n">
-        <v>160.8</v>
-      </c>
+      <c r="D514"/>
     </row>
     <row r="515">
       <c r="A515" t="s">
@@ -8923,9 +8905,7 @@
       <c r="C515" t="n">
         <v>2009</v>
       </c>
-      <c r="D515" t="n">
-        <v>156.9</v>
-      </c>
+      <c r="D515"/>
     </row>
     <row r="516">
       <c r="A516" t="s">
@@ -8937,9 +8917,7 @@
       <c r="C516" t="n">
         <v>2010</v>
       </c>
-      <c r="D516" t="n">
-        <v>152.6</v>
-      </c>
+      <c r="D516"/>
     </row>
     <row r="517">
       <c r="A517" t="s">
@@ -8951,9 +8929,7 @@
       <c r="C517" t="n">
         <v>2011</v>
       </c>
-      <c r="D517" t="n">
-        <v>147.6</v>
-      </c>
+      <c r="D517"/>
     </row>
     <row r="518">
       <c r="A518" t="s">
@@ -8965,9 +8941,7 @@
       <c r="C518" t="n">
         <v>2012</v>
       </c>
-      <c r="D518" t="n">
-        <v>142.7</v>
-      </c>
+      <c r="D518"/>
     </row>
     <row r="519">
       <c r="A519" t="s">
@@ -8979,9 +8953,7 @@
       <c r="C519" t="n">
         <v>2013</v>
       </c>
-      <c r="D519" t="n">
-        <v>139.2</v>
-      </c>
+      <c r="D519"/>
     </row>
     <row r="520">
       <c r="A520" t="s">
@@ -8993,7 +8965,9 @@
       <c r="C520" t="n">
         <v>2000</v>
       </c>
-      <c r="D520"/>
+      <c r="D520" t="n">
+        <v>190.7</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" t="s">
@@ -9005,7 +8979,9 @@
       <c r="C521" t="n">
         <v>2001</v>
       </c>
-      <c r="D521"/>
+      <c r="D521" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" t="s">
@@ -9017,7 +8993,9 @@
       <c r="C522" t="n">
         <v>2002</v>
       </c>
-      <c r="D522"/>
+      <c r="D522" t="n">
+        <v>185.3</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" t="s">
@@ -9029,7 +9007,9 @@
       <c r="C523" t="n">
         <v>2003</v>
       </c>
-      <c r="D523"/>
+      <c r="D523" t="n">
+        <v>182.8</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" t="s">
@@ -9041,7 +9021,9 @@
       <c r="C524" t="n">
         <v>2004</v>
       </c>
-      <c r="D524"/>
+      <c r="D524" t="n">
+        <v>180.3</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" t="s">
@@ -9053,7 +9035,9 @@
       <c r="C525" t="n">
         <v>2005</v>
       </c>
-      <c r="D525"/>
+      <c r="D525" t="n">
+        <v>177.9</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" t="s">
@@ -9065,7 +9049,9 @@
       <c r="C526" t="n">
         <v>2006</v>
       </c>
-      <c r="D526"/>
+      <c r="D526" t="n">
+        <v>175.3</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" t="s">
@@ -9077,7 +9063,9 @@
       <c r="C527" t="n">
         <v>2007</v>
       </c>
-      <c r="D527"/>
+      <c r="D527" t="n">
+        <v>172.4</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" t="s">
@@ -9089,7 +9077,9 @@
       <c r="C528" t="n">
         <v>2008</v>
       </c>
-      <c r="D528"/>
+      <c r="D528" t="n">
+        <v>169</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" t="s">
@@ -9101,7 +9091,9 @@
       <c r="C529" t="n">
         <v>2009</v>
       </c>
-      <c r="D529"/>
+      <c r="D529" t="n">
+        <v>164.8</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" t="s">
@@ -9113,7 +9105,9 @@
       <c r="C530" t="n">
         <v>2010</v>
       </c>
-      <c r="D530"/>
+      <c r="D530" t="n">
+        <v>160.4</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" t="s">
@@ -9125,7 +9119,9 @@
       <c r="C531" t="n">
         <v>2011</v>
       </c>
-      <c r="D531"/>
+      <c r="D531" t="n">
+        <v>156.1</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" t="s">
@@ -9137,7 +9133,9 @@
       <c r="C532" t="n">
         <v>2012</v>
       </c>
-      <c r="D532"/>
+      <c r="D532" t="n">
+        <v>151.8</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" t="s">
@@ -9149,7 +9147,9 @@
       <c r="C533" t="n">
         <v>2013</v>
       </c>
-      <c r="D533"/>
+      <c r="D533" t="n">
+        <v>147.5</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" t="s">
@@ -9162,7 +9162,7 @@
         <v>2000</v>
       </c>
       <c r="D534" t="n">
-        <v>190.7</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="535">
@@ -9176,7 +9176,7 @@
         <v>2001</v>
       </c>
       <c r="D535" t="n">
-        <v>188</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="536">
@@ -9190,7 +9190,7 @@
         <v>2002</v>
       </c>
       <c r="D536" t="n">
-        <v>185.3</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="537">
@@ -9204,7 +9204,7 @@
         <v>2003</v>
       </c>
       <c r="D537" t="n">
-        <v>182.8</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="538">
@@ -9218,7 +9218,7 @@
         <v>2004</v>
       </c>
       <c r="D538" t="n">
-        <v>180.3</v>
+        <v>9.3</v>
       </c>
     </row>
     <row r="539">
@@ -9232,7 +9232,7 @@
         <v>2005</v>
       </c>
       <c r="D539" t="n">
-        <v>177.9</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="540">
@@ -9246,7 +9246,7 @@
         <v>2006</v>
       </c>
       <c r="D540" t="n">
-        <v>175.3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="541">
@@ -9260,7 +9260,7 @@
         <v>2007</v>
       </c>
       <c r="D541" t="n">
-        <v>172.4</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="542">
@@ -9274,7 +9274,7 @@
         <v>2008</v>
       </c>
       <c r="D542" t="n">
-        <v>169</v>
+        <v>8.9</v>
       </c>
     </row>
     <row r="543">
@@ -9288,7 +9288,7 @@
         <v>2009</v>
       </c>
       <c r="D543" t="n">
-        <v>164.8</v>
+        <v>8.8</v>
       </c>
     </row>
     <row r="544">
@@ -9302,7 +9302,7 @@
         <v>2010</v>
       </c>
       <c r="D544" t="n">
-        <v>160.4</v>
+        <v>8.7</v>
       </c>
     </row>
     <row r="545">
@@ -9316,7 +9316,7 @@
         <v>2011</v>
       </c>
       <c r="D545" t="n">
-        <v>156.1</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="546">
@@ -9330,7 +9330,7 @@
         <v>2012</v>
       </c>
       <c r="D546" t="n">
-        <v>151.8</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="547">
@@ -9344,7 +9344,7 @@
         <v>2013</v>
       </c>
       <c r="D547" t="n">
-        <v>147.5</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="548">
@@ -9358,7 +9358,7 @@
         <v>2000</v>
       </c>
       <c r="D548" t="n">
-        <v>10.9</v>
+        <v>36.9</v>
       </c>
     </row>
     <row r="549">
@@ -9372,7 +9372,7 @@
         <v>2001</v>
       </c>
       <c r="D549" t="n">
-        <v>10.3</v>
+        <v>34.3</v>
       </c>
     </row>
     <row r="550">
@@ -9386,7 +9386,7 @@
         <v>2002</v>
       </c>
       <c r="D550" t="n">
-        <v>9.8</v>
+        <v>31.6</v>
       </c>
     </row>
     <row r="551">
@@ -9400,7 +9400,7 @@
         <v>2003</v>
       </c>
       <c r="D551" t="n">
-        <v>9.5</v>
+        <v>28.9</v>
       </c>
     </row>
     <row r="552">
@@ -9414,7 +9414,7 @@
         <v>2004</v>
       </c>
       <c r="D552" t="n">
-        <v>9.3</v>
+        <v>26.3</v>
       </c>
     </row>
     <row r="553">
@@ -9428,7 +9428,7 @@
         <v>2005</v>
       </c>
       <c r="D553" t="n">
-        <v>9.1</v>
+        <v>23.9</v>
       </c>
     </row>
     <row r="554">
@@ -9442,7 +9442,7 @@
         <v>2006</v>
       </c>
       <c r="D554" t="n">
-        <v>9</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="555">
@@ -9456,7 +9456,7 @@
         <v>2007</v>
       </c>
       <c r="D555" t="n">
-        <v>8.9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="556">
@@ -9470,7 +9470,7 @@
         <v>2008</v>
       </c>
       <c r="D556" t="n">
-        <v>8.9</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="557">
@@ -9484,7 +9484,7 @@
         <v>2009</v>
       </c>
       <c r="D557" t="n">
-        <v>8.8</v>
+        <v>17.1</v>
       </c>
     </row>
     <row r="558">
@@ -9498,7 +9498,7 @@
         <v>2010</v>
       </c>
       <c r="D558" t="n">
-        <v>8.7</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="559">
@@ -9512,7 +9512,7 @@
         <v>2011</v>
       </c>
       <c r="D559" t="n">
-        <v>8.6</v>
+        <v>14.7</v>
       </c>
     </row>
     <row r="560">
@@ -9526,7 +9526,7 @@
         <v>2012</v>
       </c>
       <c r="D560" t="n">
-        <v>8.4</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="561">
@@ -9540,7 +9540,7 @@
         <v>2013</v>
       </c>
       <c r="D561" t="n">
-        <v>8.2</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="562">
@@ -9554,7 +9554,7 @@
         <v>2000</v>
       </c>
       <c r="D562" t="n">
-        <v>36.9</v>
+        <v>25.1</v>
       </c>
     </row>
     <row r="563">
@@ -9568,7 +9568,7 @@
         <v>2001</v>
       </c>
       <c r="D563" t="n">
-        <v>34.3</v>
+        <v>24.3</v>
       </c>
     </row>
     <row r="564">
@@ -9582,7 +9582,7 @@
         <v>2002</v>
       </c>
       <c r="D564" t="n">
-        <v>31.6</v>
+        <v>23.6</v>
       </c>
     </row>
     <row r="565">
@@ -9596,7 +9596,7 @@
         <v>2003</v>
       </c>
       <c r="D565" t="n">
-        <v>28.9</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="566">
@@ -9610,7 +9610,7 @@
         <v>2004</v>
       </c>
       <c r="D566" t="n">
-        <v>26.3</v>
+        <v>22.3</v>
       </c>
     </row>
     <row r="567">
@@ -9624,7 +9624,7 @@
         <v>2005</v>
       </c>
       <c r="D567" t="n">
-        <v>23.9</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="568">
@@ -9638,7 +9638,7 @@
         <v>2006</v>
       </c>
       <c r="D568" t="n">
-        <v>21.8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="569">
@@ -9652,7 +9652,7 @@
         <v>2007</v>
       </c>
       <c r="D569" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="570">
@@ -9666,7 +9666,7 @@
         <v>2008</v>
       </c>
       <c r="D570" t="n">
-        <v>18.4</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="571">
@@ -9680,7 +9680,7 @@
         <v>2009</v>
       </c>
       <c r="D571" t="n">
-        <v>17.1</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="572">
@@ -9694,7 +9694,7 @@
         <v>2010</v>
       </c>
       <c r="D572" t="n">
-        <v>15.8</v>
+        <v>18.6</v>
       </c>
     </row>
     <row r="573">
@@ -9708,7 +9708,7 @@
         <v>2011</v>
       </c>
       <c r="D573" t="n">
-        <v>14.7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="574">
@@ -9722,7 +9722,7 @@
         <v>2012</v>
       </c>
       <c r="D574" t="n">
-        <v>13.6</v>
+        <v>17.4</v>
       </c>
     </row>
     <row r="575">
@@ -9736,7 +9736,7 @@
         <v>2013</v>
       </c>
       <c r="D575" t="n">
-        <v>12.7</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="576">
@@ -9750,7 +9750,7 @@
         <v>2000</v>
       </c>
       <c r="D576" t="n">
-        <v>25.1</v>
+        <v>101.3</v>
       </c>
     </row>
     <row r="577">
@@ -9764,7 +9764,7 @@
         <v>2001</v>
       </c>
       <c r="D577" t="n">
-        <v>24.3</v>
+        <v>100.8</v>
       </c>
     </row>
     <row r="578">
@@ -9778,7 +9778,7 @@
         <v>2002</v>
       </c>
       <c r="D578" t="n">
-        <v>23.6</v>
+        <v>100.7</v>
       </c>
     </row>
     <row r="579">
@@ -9792,7 +9792,7 @@
         <v>2003</v>
       </c>
       <c r="D579" t="n">
-        <v>22.9</v>
+        <v>100.2</v>
       </c>
     </row>
     <row r="580">
@@ -9806,7 +9806,7 @@
         <v>2004</v>
       </c>
       <c r="D580" t="n">
-        <v>22.3</v>
+        <v>99.1</v>
       </c>
     </row>
     <row r="581">
@@ -9820,7 +9820,7 @@
         <v>2005</v>
       </c>
       <c r="D581" t="n">
-        <v>21.6</v>
+        <v>97.4</v>
       </c>
     </row>
     <row r="582">
@@ -9834,7 +9834,7 @@
         <v>2006</v>
       </c>
       <c r="D582" t="n">
-        <v>21</v>
+        <v>95.4</v>
       </c>
     </row>
     <row r="583">
@@ -9848,7 +9848,7 @@
         <v>2007</v>
       </c>
       <c r="D583" t="n">
-        <v>20.4</v>
+        <v>93.1</v>
       </c>
     </row>
     <row r="584">
@@ -9862,7 +9862,7 @@
         <v>2008</v>
       </c>
       <c r="D584" t="n">
-        <v>19.8</v>
+        <v>90.8</v>
       </c>
     </row>
     <row r="585">
@@ -9876,7 +9876,7 @@
         <v>2009</v>
       </c>
       <c r="D585" t="n">
-        <v>19.2</v>
+        <v>88.2</v>
       </c>
     </row>
     <row r="586">
@@ -9890,7 +9890,7 @@
         <v>2010</v>
       </c>
       <c r="D586" t="n">
-        <v>18.6</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="587">
@@ -9904,7 +9904,7 @@
         <v>2011</v>
       </c>
       <c r="D587" t="n">
-        <v>18</v>
+        <v>82.8</v>
       </c>
     </row>
     <row r="588">
@@ -9918,7 +9918,7 @@
         <v>2012</v>
       </c>
       <c r="D588" t="n">
-        <v>17.4</v>
+        <v>80.2</v>
       </c>
     </row>
     <row r="589">
@@ -9932,7 +9932,7 @@
         <v>2013</v>
       </c>
       <c r="D589" t="n">
-        <v>16.9</v>
+        <v>77.9</v>
       </c>
     </row>
     <row r="590">
@@ -9946,7 +9946,7 @@
         <v>2000</v>
       </c>
       <c r="D590" t="n">
-        <v>101.3</v>
+        <v>121.4</v>
       </c>
     </row>
     <row r="591">
@@ -9960,7 +9960,7 @@
         <v>2001</v>
       </c>
       <c r="D591" t="n">
-        <v>100.8</v>
+        <v>119.4</v>
       </c>
     </row>
     <row r="592">
@@ -9974,7 +9974,7 @@
         <v>2002</v>
       </c>
       <c r="D592" t="n">
-        <v>100.7</v>
+        <v>115.4</v>
       </c>
     </row>
     <row r="593">
@@ -9988,7 +9988,7 @@
         <v>2003</v>
       </c>
       <c r="D593" t="n">
-        <v>100.2</v>
+        <v>109.7</v>
       </c>
     </row>
     <row r="594">
@@ -10002,7 +10002,7 @@
         <v>2004</v>
       </c>
       <c r="D594" t="n">
-        <v>99.1</v>
+        <v>102.6</v>
       </c>
     </row>
     <row r="595">
@@ -10016,7 +10016,7 @@
         <v>2005</v>
       </c>
       <c r="D595" t="n">
-        <v>97.4</v>
+        <v>94.9</v>
       </c>
     </row>
     <row r="596">
@@ -10030,7 +10030,7 @@
         <v>2006</v>
       </c>
       <c r="D596" t="n">
-        <v>95.4</v>
+        <v>87.1</v>
       </c>
     </row>
     <row r="597">
@@ -10044,7 +10044,7 @@
         <v>2007</v>
       </c>
       <c r="D597" t="n">
-        <v>93.1</v>
+        <v>79.5</v>
       </c>
     </row>
     <row r="598">
@@ -10058,7 +10058,7 @@
         <v>2008</v>
       </c>
       <c r="D598" t="n">
-        <v>90.8</v>
+        <v>72.3</v>
       </c>
     </row>
     <row r="599">
@@ -10072,7 +10072,7 @@
         <v>2009</v>
       </c>
       <c r="D599" t="n">
-        <v>88.2</v>
+        <v>65.7</v>
       </c>
     </row>
     <row r="600">
@@ -10086,7 +10086,7 @@
         <v>2010</v>
       </c>
       <c r="D600" t="n">
-        <v>85.5</v>
+        <v>60.1</v>
       </c>
     </row>
     <row r="601">
@@ -10100,7 +10100,7 @@
         <v>2011</v>
       </c>
       <c r="D601" t="n">
-        <v>82.8</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="602">
@@ -10114,7 +10114,7 @@
         <v>2012</v>
       </c>
       <c r="D602" t="n">
-        <v>80.2</v>
+        <v>52</v>
       </c>
     </row>
     <row r="603">
@@ -10128,7 +10128,7 @@
         <v>2013</v>
       </c>
       <c r="D603" t="n">
-        <v>77.9</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="604">
@@ -10142,7 +10142,7 @@
         <v>2000</v>
       </c>
       <c r="D604" t="n">
-        <v>121.4</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="605">
@@ -10156,7 +10156,7 @@
         <v>2001</v>
       </c>
       <c r="D605" t="n">
-        <v>119.4</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="606">
@@ -10170,7 +10170,7 @@
         <v>2002</v>
       </c>
       <c r="D606" t="n">
-        <v>115.4</v>
+        <v>11.6</v>
       </c>
     </row>
     <row r="607">
@@ -10184,7 +10184,7 @@
         <v>2003</v>
       </c>
       <c r="D607" t="n">
-        <v>109.7</v>
+        <v>10.9</v>
       </c>
     </row>
     <row r="608">
@@ -10198,7 +10198,7 @@
         <v>2004</v>
       </c>
       <c r="D608" t="n">
-        <v>102.6</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="609">
@@ -10212,7 +10212,7 @@
         <v>2005</v>
       </c>
       <c r="D609" t="n">
-        <v>94.9</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="610">
@@ -10226,7 +10226,7 @@
         <v>2006</v>
       </c>
       <c r="D610" t="n">
-        <v>87.1</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="611">
@@ -10240,7 +10240,7 @@
         <v>2007</v>
       </c>
       <c r="D611" t="n">
-        <v>79.5</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="612">
@@ -10254,7 +10254,7 @@
         <v>2008</v>
       </c>
       <c r="D612" t="n">
-        <v>72.3</v>
+        <v>10.2</v>
       </c>
     </row>
     <row r="613">
@@ -10268,7 +10268,7 @@
         <v>2009</v>
       </c>
       <c r="D613" t="n">
-        <v>65.7</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="614">
@@ -10282,7 +10282,7 @@
         <v>2010</v>
       </c>
       <c r="D614" t="n">
-        <v>60.1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="615">
@@ -10296,7 +10296,7 @@
         <v>2011</v>
       </c>
       <c r="D615" t="n">
-        <v>55.7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="616">
@@ -10310,7 +10310,7 @@
         <v>2012</v>
       </c>
       <c r="D616" t="n">
-        <v>52</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="617">
@@ -10324,7 +10324,7 @@
         <v>2013</v>
       </c>
       <c r="D617" t="n">
-        <v>49.1</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="618">
@@ -10338,7 +10338,7 @@
         <v>2000</v>
       </c>
       <c r="D618" t="n">
-        <v>13.1</v>
+        <v>146.1</v>
       </c>
     </row>
     <row r="619">
@@ -10352,7 +10352,7 @@
         <v>2001</v>
       </c>
       <c r="D619" t="n">
-        <v>12.3</v>
+        <v>143.4</v>
       </c>
     </row>
     <row r="620">
@@ -10366,7 +10366,7 @@
         <v>2002</v>
       </c>
       <c r="D620" t="n">
-        <v>11.6</v>
+        <v>140.3</v>
       </c>
     </row>
     <row r="621">
@@ -10380,7 +10380,7 @@
         <v>2003</v>
       </c>
       <c r="D621" t="n">
-        <v>10.9</v>
+        <v>136.9</v>
       </c>
     </row>
     <row r="622">
@@ -10394,7 +10394,7 @@
         <v>2004</v>
       </c>
       <c r="D622" t="n">
-        <v>10.6</v>
+        <v>133.2</v>
       </c>
     </row>
     <row r="623">
@@ -10408,7 +10408,7 @@
         <v>2005</v>
       </c>
       <c r="D623" t="n">
-        <v>10.4</v>
+        <v>129.3</v>
       </c>
     </row>
     <row r="624">
@@ -10422,7 +10422,7 @@
         <v>2006</v>
       </c>
       <c r="D624" t="n">
-        <v>10.4</v>
+        <v>125.4</v>
       </c>
     </row>
     <row r="625">
@@ -10436,7 +10436,7 @@
         <v>2007</v>
       </c>
       <c r="D625" t="n">
-        <v>10.4</v>
+        <v>121.4</v>
       </c>
     </row>
     <row r="626">
@@ -10450,7 +10450,7 @@
         <v>2008</v>
       </c>
       <c r="D626" t="n">
-        <v>10.2</v>
+        <v>117</v>
       </c>
     </row>
     <row r="627">
@@ -10464,7 +10464,7 @@
         <v>2009</v>
       </c>
       <c r="D627" t="n">
-        <v>10.1</v>
+        <v>113.1</v>
       </c>
     </row>
     <row r="628">
@@ -10478,7 +10478,7 @@
         <v>2010</v>
       </c>
       <c r="D628" t="n">
-        <v>10</v>
+        <v>109.3</v>
       </c>
     </row>
     <row r="629">
@@ -10492,7 +10492,7 @@
         <v>2011</v>
       </c>
       <c r="D629" t="n">
-        <v>10</v>
+        <v>106.2</v>
       </c>
     </row>
     <row r="630">
@@ -10506,7 +10506,7 @@
         <v>2012</v>
       </c>
       <c r="D630" t="n">
-        <v>9.8</v>
+        <v>103</v>
       </c>
     </row>
     <row r="631">
@@ -10520,7 +10520,7 @@
         <v>2013</v>
       </c>
       <c r="D631" t="n">
-        <v>9.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="632">
@@ -40494,7 +40494,7 @@
         <v>2000</v>
       </c>
       <c r="D2802" t="n">
-        <v>18.4</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="2803">
@@ -40508,7 +40508,7 @@
         <v>2001</v>
       </c>
       <c r="D2803" t="n">
-        <v>17.6</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="2804">
@@ -40522,7 +40522,7 @@
         <v>2002</v>
       </c>
       <c r="D2804" t="n">
-        <v>16.7</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="2805">
@@ -40536,7 +40536,7 @@
         <v>2003</v>
       </c>
       <c r="D2805" t="n">
-        <v>15.8</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="2806">
@@ -40550,7 +40550,7 @@
         <v>2004</v>
       </c>
       <c r="D2806" t="n">
-        <v>15.1</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="2807">
@@ -40564,7 +40564,7 @@
         <v>2005</v>
       </c>
       <c r="D2807" t="n">
-        <v>14.5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2808">
@@ -40578,7 +40578,7 @@
         <v>2006</v>
       </c>
       <c r="D2808" t="n">
-        <v>14</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="2809">
@@ -40592,7 +40592,7 @@
         <v>2007</v>
       </c>
       <c r="D2809" t="n">
-        <v>13.4</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="2810">
@@ -40606,7 +40606,7 @@
         <v>2008</v>
       </c>
       <c r="D2810" t="n">
-        <v>12.9</v>
+        <v>5.6</v>
       </c>
     </row>
     <row r="2811">
@@ -40620,7 +40620,7 @@
         <v>2009</v>
       </c>
       <c r="D2811" t="n">
-        <v>12.3</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="2812">
@@ -40634,7 +40634,7 @@
         <v>2010</v>
       </c>
       <c r="D2812" t="n">
-        <v>11.8</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="2813">
@@ -40648,7 +40648,7 @@
         <v>2011</v>
       </c>
       <c r="D2813" t="n">
-        <v>11.2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2814">
@@ -40662,7 +40662,7 @@
         <v>2012</v>
       </c>
       <c r="D2814" t="n">
-        <v>10.6</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="2815">
@@ -40676,7 +40676,7 @@
         <v>2013</v>
       </c>
       <c r="D2815" t="n">
-        <v>10</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="2816">
@@ -40690,7 +40690,7 @@
         <v>2000</v>
       </c>
       <c r="D2816" t="n">
-        <v>6.6</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="2817">
@@ -40704,7 +40704,7 @@
         <v>2001</v>
       </c>
       <c r="D2817" t="n">
-        <v>6.5</v>
+        <v>17.6</v>
       </c>
     </row>
     <row r="2818">
@@ -40718,7 +40718,7 @@
         <v>2002</v>
       </c>
       <c r="D2818" t="n">
-        <v>6.3</v>
+        <v>16.7</v>
       </c>
     </row>
     <row r="2819">
@@ -40732,7 +40732,7 @@
         <v>2003</v>
       </c>
       <c r="D2819" t="n">
-        <v>6.3</v>
+        <v>15.8</v>
       </c>
     </row>
     <row r="2820">
@@ -40746,7 +40746,7 @@
         <v>2004</v>
       </c>
       <c r="D2820" t="n">
-        <v>6.1</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="2821">
@@ -40760,7 +40760,7 @@
         <v>2005</v>
       </c>
       <c r="D2821" t="n">
-        <v>6</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="2822">
@@ -40774,7 +40774,7 @@
         <v>2006</v>
       </c>
       <c r="D2822" t="n">
-        <v>5.9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2823">
@@ -40788,7 +40788,7 @@
         <v>2007</v>
       </c>
       <c r="D2823" t="n">
-        <v>5.8</v>
+        <v>13.4</v>
       </c>
     </row>
     <row r="2824">
@@ -40802,7 +40802,7 @@
         <v>2008</v>
       </c>
       <c r="D2824" t="n">
-        <v>5.6</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="2825">
@@ -40816,7 +40816,7 @@
         <v>2009</v>
       </c>
       <c r="D2825" t="n">
-        <v>5.4</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="2826">
@@ -40830,7 +40830,7 @@
         <v>2010</v>
       </c>
       <c r="D2826" t="n">
-        <v>5.2</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="2827">
@@ -40844,7 +40844,7 @@
         <v>2011</v>
       </c>
       <c r="D2827" t="n">
-        <v>5</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="2828">
@@ -40858,7 +40858,7 @@
         <v>2012</v>
       </c>
       <c r="D2828" t="n">
-        <v>4.8</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="2829">
@@ -40872,7 +40872,7 @@
         <v>2013</v>
       </c>
       <c r="D2829" t="n">
-        <v>4.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2830">
@@ -44345,46 +44345,46 @@
         <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>146.1</v>
+        <v>110.5</v>
       </c>
       <c r="D33" t="n">
-        <v>143.4</v>
+        <v>100.8</v>
       </c>
       <c r="E33" t="n">
-        <v>140.3</v>
+        <v>89.7</v>
       </c>
       <c r="F33" t="n">
-        <v>136.9</v>
+        <v>79.2</v>
       </c>
       <c r="G33" t="n">
-        <v>133.2</v>
+        <v>70.5</v>
       </c>
       <c r="H33" t="n">
-        <v>129.3</v>
+        <v>63.6</v>
       </c>
       <c r="I33" t="n">
-        <v>125.4</v>
+        <v>57.9</v>
       </c>
       <c r="J33" t="n">
-        <v>121.4</v>
+        <v>53.4</v>
       </c>
       <c r="K33" t="n">
-        <v>117</v>
+        <v>49.5</v>
       </c>
       <c r="L33" t="n">
-        <v>113.1</v>
+        <v>46.4</v>
       </c>
       <c r="M33" t="n">
-        <v>109.3</v>
+        <v>43.8</v>
       </c>
       <c r="N33" t="n">
-        <v>106.2</v>
+        <v>41.6</v>
       </c>
       <c r="O33" t="n">
-        <v>103</v>
+        <v>39.7</v>
       </c>
       <c r="P33" t="n">
-        <v>100</v>
+        <v>37.9</v>
       </c>
     </row>
     <row r="34">
@@ -44395,46 +44395,46 @@
         <v>69</v>
       </c>
       <c r="C34" t="n">
-        <v>110.5</v>
+        <v>151.2</v>
       </c>
       <c r="D34" t="n">
+        <v>146.6</v>
+      </c>
+      <c r="E34" t="n">
+        <v>141.2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>135.7</v>
+      </c>
+      <c r="G34" t="n">
+        <v>130.6</v>
+      </c>
+      <c r="H34" t="n">
+        <v>125.8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>121.3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>117.1</v>
+      </c>
+      <c r="K34" t="n">
+        <v>112.9</v>
+      </c>
+      <c r="L34" t="n">
+        <v>108.9</v>
+      </c>
+      <c r="M34" t="n">
+        <v>104.4</v>
+      </c>
+      <c r="N34" t="n">
         <v>100.8</v>
       </c>
-      <c r="E34" t="n">
-        <v>89.7</v>
-      </c>
-      <c r="F34" t="n">
-        <v>79.2</v>
-      </c>
-      <c r="G34" t="n">
-        <v>70.5</v>
-      </c>
-      <c r="H34" t="n">
-        <v>63.6</v>
-      </c>
-      <c r="I34" t="n">
-        <v>57.9</v>
-      </c>
-      <c r="J34" t="n">
-        <v>53.4</v>
-      </c>
-      <c r="K34" t="n">
-        <v>49.5</v>
-      </c>
-      <c r="L34" t="n">
-        <v>46.4</v>
-      </c>
-      <c r="M34" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="N34" t="n">
-        <v>41.6</v>
-      </c>
       <c r="O34" t="n">
-        <v>39.7</v>
+        <v>97.3</v>
       </c>
       <c r="P34" t="n">
-        <v>37.9</v>
+        <v>94.5</v>
       </c>
     </row>
     <row r="35">
@@ -44445,46 +44445,46 @@
         <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>151.2</v>
+        <v>6.2</v>
       </c>
       <c r="D35" t="n">
-        <v>146.6</v>
+        <v>6.2</v>
       </c>
       <c r="E35" t="n">
-        <v>141.2</v>
+        <v>6.2</v>
       </c>
       <c r="F35" t="n">
-        <v>135.7</v>
+        <v>6.1</v>
       </c>
       <c r="G35" t="n">
-        <v>130.6</v>
+        <v>6.1</v>
       </c>
       <c r="H35" t="n">
-        <v>125.8</v>
+        <v>6.1</v>
       </c>
       <c r="I35" t="n">
-        <v>121.3</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
-        <v>117.1</v>
+        <v>5.9</v>
       </c>
       <c r="K35" t="n">
-        <v>112.9</v>
+        <v>5.8</v>
       </c>
       <c r="L35" t="n">
-        <v>108.9</v>
+        <v>5.7</v>
       </c>
       <c r="M35" t="n">
-        <v>104.4</v>
+        <v>5.6</v>
       </c>
       <c r="N35" t="n">
-        <v>100.8</v>
+        <v>5.4</v>
       </c>
       <c r="O35" t="n">
-        <v>97.3</v>
+        <v>5.3</v>
       </c>
       <c r="P35" t="n">
-        <v>94.5</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="36">
@@ -44495,46 +44495,46 @@
         <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>6.2</v>
+        <v>35.3</v>
       </c>
       <c r="D36" t="n">
-        <v>6.2</v>
+        <v>32</v>
       </c>
       <c r="E36" t="n">
-        <v>6.2</v>
+        <v>29.7</v>
       </c>
       <c r="F36" t="n">
-        <v>6.1</v>
+        <v>28.4</v>
       </c>
       <c r="G36" t="n">
-        <v>6.1</v>
+        <v>27.8</v>
       </c>
       <c r="H36" t="n">
-        <v>6.1</v>
+        <v>27.7</v>
       </c>
       <c r="I36" t="n">
-        <v>6</v>
+        <v>27.9</v>
       </c>
       <c r="J36" t="n">
-        <v>5.9</v>
+        <v>28.2</v>
       </c>
       <c r="K36" t="n">
-        <v>5.8</v>
+        <v>28.3</v>
       </c>
       <c r="L36" t="n">
-        <v>5.7</v>
+        <v>28.2</v>
       </c>
       <c r="M36" t="n">
-        <v>5.6</v>
+        <v>27.8</v>
       </c>
       <c r="N36" t="n">
-        <v>5.4</v>
+        <v>27.3</v>
       </c>
       <c r="O36" t="n">
-        <v>5.3</v>
+        <v>26.7</v>
       </c>
       <c r="P36" t="n">
-        <v>5.2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
@@ -44545,46 +44545,46 @@
         <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>35.3</v>
+        <v>174.1</v>
       </c>
       <c r="D37" t="n">
-        <v>32</v>
+        <v>173.5</v>
       </c>
       <c r="E37" t="n">
-        <v>29.7</v>
+        <v>172.8</v>
       </c>
       <c r="F37" t="n">
-        <v>28.4</v>
+        <v>171.7</v>
       </c>
       <c r="G37" t="n">
-        <v>27.8</v>
+        <v>170.5</v>
       </c>
       <c r="H37" t="n">
-        <v>27.7</v>
+        <v>168.9</v>
       </c>
       <c r="I37" t="n">
-        <v>27.9</v>
+        <v>166.7</v>
       </c>
       <c r="J37" t="n">
-        <v>28.2</v>
+        <v>164.1</v>
       </c>
       <c r="K37" t="n">
-        <v>28.3</v>
+        <v>160.8</v>
       </c>
       <c r="L37" t="n">
-        <v>28.2</v>
+        <v>156.9</v>
       </c>
       <c r="M37" t="n">
-        <v>27.8</v>
+        <v>152.6</v>
       </c>
       <c r="N37" t="n">
-        <v>27.3</v>
+        <v>147.6</v>
       </c>
       <c r="O37" t="n">
-        <v>26.7</v>
+        <v>142.7</v>
       </c>
       <c r="P37" t="n">
-        <v>26</v>
+        <v>139.2</v>
       </c>
     </row>
     <row r="38">
@@ -44594,48 +44594,20 @@
       <c r="B38" t="s">
         <v>77</v>
       </c>
-      <c r="C38" t="n">
-        <v>174.1</v>
-      </c>
-      <c r="D38" t="n">
-        <v>173.5</v>
-      </c>
-      <c r="E38" t="n">
-        <v>172.8</v>
-      </c>
-      <c r="F38" t="n">
-        <v>171.7</v>
-      </c>
-      <c r="G38" t="n">
-        <v>170.5</v>
-      </c>
-      <c r="H38" t="n">
-        <v>168.9</v>
-      </c>
-      <c r="I38" t="n">
-        <v>166.7</v>
-      </c>
-      <c r="J38" t="n">
-        <v>164.1</v>
-      </c>
-      <c r="K38" t="n">
-        <v>160.8</v>
-      </c>
-      <c r="L38" t="n">
-        <v>156.9</v>
-      </c>
-      <c r="M38" t="n">
-        <v>152.6</v>
-      </c>
-      <c r="N38" t="n">
-        <v>147.6</v>
-      </c>
-      <c r="O38" t="n">
-        <v>142.7</v>
-      </c>
-      <c r="P38" t="n">
-        <v>139.2</v>
-      </c>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -44644,20 +44616,48 @@
       <c r="B39" t="s">
         <v>79</v>
       </c>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39"/>
-      <c r="G39"/>
-      <c r="H39"/>
-      <c r="I39"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
+      <c r="C39" t="n">
+        <v>190.7</v>
+      </c>
+      <c r="D39" t="n">
+        <v>188</v>
+      </c>
+      <c r="E39" t="n">
+        <v>185.3</v>
+      </c>
+      <c r="F39" t="n">
+        <v>182.8</v>
+      </c>
+      <c r="G39" t="n">
+        <v>180.3</v>
+      </c>
+      <c r="H39" t="n">
+        <v>177.9</v>
+      </c>
+      <c r="I39" t="n">
+        <v>175.3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>172.4</v>
+      </c>
+      <c r="K39" t="n">
+        <v>169</v>
+      </c>
+      <c r="L39" t="n">
+        <v>164.8</v>
+      </c>
+      <c r="M39" t="n">
+        <v>160.4</v>
+      </c>
+      <c r="N39" t="n">
+        <v>156.1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="P39" t="n">
+        <v>147.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -44667,46 +44667,46 @@
         <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>190.7</v>
+        <v>10.9</v>
       </c>
       <c r="D40" t="n">
-        <v>188</v>
+        <v>10.3</v>
       </c>
       <c r="E40" t="n">
-        <v>185.3</v>
+        <v>9.8</v>
       </c>
       <c r="F40" t="n">
-        <v>182.8</v>
+        <v>9.5</v>
       </c>
       <c r="G40" t="n">
-        <v>180.3</v>
+        <v>9.3</v>
       </c>
       <c r="H40" t="n">
-        <v>177.9</v>
+        <v>9.1</v>
       </c>
       <c r="I40" t="n">
-        <v>175.3</v>
+        <v>9</v>
       </c>
       <c r="J40" t="n">
-        <v>172.4</v>
+        <v>8.9</v>
       </c>
       <c r="K40" t="n">
-        <v>169</v>
+        <v>8.9</v>
       </c>
       <c r="L40" t="n">
-        <v>164.8</v>
+        <v>8.8</v>
       </c>
       <c r="M40" t="n">
-        <v>160.4</v>
+        <v>8.7</v>
       </c>
       <c r="N40" t="n">
-        <v>156.1</v>
+        <v>8.6</v>
       </c>
       <c r="O40" t="n">
-        <v>151.8</v>
+        <v>8.4</v>
       </c>
       <c r="P40" t="n">
-        <v>147.5</v>
+        <v>8.2</v>
       </c>
     </row>
     <row r="41">
@@ -44717,46 +44717,46 @@
         <v>83</v>
       </c>
       <c r="C41" t="n">
-        <v>10.9</v>
+        <v>36.9</v>
       </c>
       <c r="D41" t="n">
-        <v>10.3</v>
+        <v>34.3</v>
       </c>
       <c r="E41" t="n">
-        <v>9.8</v>
+        <v>31.6</v>
       </c>
       <c r="F41" t="n">
-        <v>9.5</v>
+        <v>28.9</v>
       </c>
       <c r="G41" t="n">
-        <v>9.3</v>
+        <v>26.3</v>
       </c>
       <c r="H41" t="n">
-        <v>9.1</v>
+        <v>23.9</v>
       </c>
       <c r="I41" t="n">
-        <v>9</v>
+        <v>21.8</v>
       </c>
       <c r="J41" t="n">
-        <v>8.9</v>
+        <v>20</v>
       </c>
       <c r="K41" t="n">
-        <v>8.9</v>
+        <v>18.4</v>
       </c>
       <c r="L41" t="n">
-        <v>8.8</v>
+        <v>17.1</v>
       </c>
       <c r="M41" t="n">
-        <v>8.7</v>
+        <v>15.8</v>
       </c>
       <c r="N41" t="n">
-        <v>8.6</v>
+        <v>14.7</v>
       </c>
       <c r="O41" t="n">
-        <v>8.4</v>
+        <v>13.6</v>
       </c>
       <c r="P41" t="n">
-        <v>8.2</v>
+        <v>12.7</v>
       </c>
     </row>
     <row r="42">
@@ -44767,46 +44767,46 @@
         <v>85</v>
       </c>
       <c r="C42" t="n">
-        <v>36.9</v>
+        <v>25.1</v>
       </c>
       <c r="D42" t="n">
-        <v>34.3</v>
+        <v>24.3</v>
       </c>
       <c r="E42" t="n">
-        <v>31.6</v>
+        <v>23.6</v>
       </c>
       <c r="F42" t="n">
-        <v>28.9</v>
+        <v>22.9</v>
       </c>
       <c r="G42" t="n">
-        <v>26.3</v>
+        <v>22.3</v>
       </c>
       <c r="H42" t="n">
-        <v>23.9</v>
+        <v>21.6</v>
       </c>
       <c r="I42" t="n">
-        <v>21.8</v>
+        <v>21</v>
       </c>
       <c r="J42" t="n">
-        <v>20</v>
+        <v>20.4</v>
       </c>
       <c r="K42" t="n">
-        <v>18.4</v>
+        <v>19.8</v>
       </c>
       <c r="L42" t="n">
-        <v>17.1</v>
+        <v>19.2</v>
       </c>
       <c r="M42" t="n">
-        <v>15.8</v>
+        <v>18.6</v>
       </c>
       <c r="N42" t="n">
-        <v>14.7</v>
+        <v>18</v>
       </c>
       <c r="O42" t="n">
-        <v>13.6</v>
+        <v>17.4</v>
       </c>
       <c r="P42" t="n">
-        <v>12.7</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="43">
@@ -44817,46 +44817,46 @@
         <v>87</v>
       </c>
       <c r="C43" t="n">
-        <v>25.1</v>
+        <v>101.3</v>
       </c>
       <c r="D43" t="n">
-        <v>24.3</v>
+        <v>100.8</v>
       </c>
       <c r="E43" t="n">
-        <v>23.6</v>
+        <v>100.7</v>
       </c>
       <c r="F43" t="n">
-        <v>22.9</v>
+        <v>100.2</v>
       </c>
       <c r="G43" t="n">
-        <v>22.3</v>
+        <v>99.1</v>
       </c>
       <c r="H43" t="n">
-        <v>21.6</v>
+        <v>97.4</v>
       </c>
       <c r="I43" t="n">
-        <v>21</v>
+        <v>95.4</v>
       </c>
       <c r="J43" t="n">
-        <v>20.4</v>
+        <v>93.1</v>
       </c>
       <c r="K43" t="n">
-        <v>19.8</v>
+        <v>90.8</v>
       </c>
       <c r="L43" t="n">
-        <v>19.2</v>
+        <v>88.2</v>
       </c>
       <c r="M43" t="n">
-        <v>18.6</v>
+        <v>85.5</v>
       </c>
       <c r="N43" t="n">
-        <v>18</v>
+        <v>82.8</v>
       </c>
       <c r="O43" t="n">
-        <v>17.4</v>
+        <v>80.2</v>
       </c>
       <c r="P43" t="n">
-        <v>16.9</v>
+        <v>77.9</v>
       </c>
     </row>
     <row r="44">
@@ -44867,46 +44867,46 @@
         <v>89</v>
       </c>
       <c r="C44" t="n">
-        <v>101.3</v>
+        <v>121.4</v>
       </c>
       <c r="D44" t="n">
-        <v>100.8</v>
+        <v>119.4</v>
       </c>
       <c r="E44" t="n">
-        <v>100.7</v>
+        <v>115.4</v>
       </c>
       <c r="F44" t="n">
-        <v>100.2</v>
+        <v>109.7</v>
       </c>
       <c r="G44" t="n">
-        <v>99.1</v>
+        <v>102.6</v>
       </c>
       <c r="H44" t="n">
-        <v>97.4</v>
+        <v>94.9</v>
       </c>
       <c r="I44" t="n">
-        <v>95.4</v>
+        <v>87.1</v>
       </c>
       <c r="J44" t="n">
-        <v>93.1</v>
+        <v>79.5</v>
       </c>
       <c r="K44" t="n">
-        <v>90.8</v>
+        <v>72.3</v>
       </c>
       <c r="L44" t="n">
-        <v>88.2</v>
+        <v>65.7</v>
       </c>
       <c r="M44" t="n">
-        <v>85.5</v>
+        <v>60.1</v>
       </c>
       <c r="N44" t="n">
-        <v>82.8</v>
+        <v>55.7</v>
       </c>
       <c r="O44" t="n">
-        <v>80.2</v>
+        <v>52</v>
       </c>
       <c r="P44" t="n">
-        <v>77.9</v>
+        <v>49.1</v>
       </c>
     </row>
     <row r="45">
@@ -44917,46 +44917,46 @@
         <v>91</v>
       </c>
       <c r="C45" t="n">
-        <v>121.4</v>
+        <v>13.1</v>
       </c>
       <c r="D45" t="n">
-        <v>119.4</v>
+        <v>12.3</v>
       </c>
       <c r="E45" t="n">
-        <v>115.4</v>
+        <v>11.6</v>
       </c>
       <c r="F45" t="n">
-        <v>109.7</v>
+        <v>10.9</v>
       </c>
       <c r="G45" t="n">
-        <v>102.6</v>
+        <v>10.6</v>
       </c>
       <c r="H45" t="n">
-        <v>94.9</v>
+        <v>10.4</v>
       </c>
       <c r="I45" t="n">
-        <v>87.1</v>
+        <v>10.4</v>
       </c>
       <c r="J45" t="n">
-        <v>79.5</v>
+        <v>10.4</v>
       </c>
       <c r="K45" t="n">
-        <v>72.3</v>
+        <v>10.2</v>
       </c>
       <c r="L45" t="n">
-        <v>65.7</v>
+        <v>10.1</v>
       </c>
       <c r="M45" t="n">
-        <v>60.1</v>
+        <v>10</v>
       </c>
       <c r="N45" t="n">
-        <v>55.7</v>
+        <v>10</v>
       </c>
       <c r="O45" t="n">
-        <v>52</v>
+        <v>9.8</v>
       </c>
       <c r="P45" t="n">
-        <v>49.1</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="46">
@@ -44967,46 +44967,46 @@
         <v>93</v>
       </c>
       <c r="C46" t="n">
-        <v>13.1</v>
+        <v>146.1</v>
       </c>
       <c r="D46" t="n">
-        <v>12.3</v>
+        <v>143.4</v>
       </c>
       <c r="E46" t="n">
-        <v>11.6</v>
+        <v>140.3</v>
       </c>
       <c r="F46" t="n">
-        <v>10.9</v>
+        <v>136.9</v>
       </c>
       <c r="G46" t="n">
-        <v>10.6</v>
+        <v>133.2</v>
       </c>
       <c r="H46" t="n">
-        <v>10.4</v>
+        <v>129.3</v>
       </c>
       <c r="I46" t="n">
-        <v>10.4</v>
+        <v>125.4</v>
       </c>
       <c r="J46" t="n">
-        <v>10.4</v>
+        <v>121.4</v>
       </c>
       <c r="K46" t="n">
-        <v>10.2</v>
+        <v>117</v>
       </c>
       <c r="L46" t="n">
-        <v>10.1</v>
+        <v>113.1</v>
       </c>
       <c r="M46" t="n">
-        <v>10</v>
+        <v>109.3</v>
       </c>
       <c r="N46" t="n">
-        <v>10</v>
+        <v>106.2</v>
       </c>
       <c r="O46" t="n">
-        <v>9.8</v>
+        <v>103</v>
       </c>
       <c r="P46" t="n">
-        <v>9.6</v>
+        <v>100</v>
       </c>
     </row>
     <row r="47">
@@ -52347,46 +52347,46 @@
         <v>405</v>
       </c>
       <c r="C202" t="n">
-        <v>18.4</v>
+        <v>6.6</v>
       </c>
       <c r="D202" t="n">
-        <v>17.6</v>
+        <v>6.5</v>
       </c>
       <c r="E202" t="n">
-        <v>16.7</v>
+        <v>6.3</v>
       </c>
       <c r="F202" t="n">
-        <v>15.8</v>
+        <v>6.3</v>
       </c>
       <c r="G202" t="n">
-        <v>15.1</v>
+        <v>6.1</v>
       </c>
       <c r="H202" t="n">
-        <v>14.5</v>
+        <v>6</v>
       </c>
       <c r="I202" t="n">
-        <v>14</v>
+        <v>5.9</v>
       </c>
       <c r="J202" t="n">
-        <v>13.4</v>
+        <v>5.8</v>
       </c>
       <c r="K202" t="n">
-        <v>12.9</v>
+        <v>5.6</v>
       </c>
       <c r="L202" t="n">
-        <v>12.3</v>
+        <v>5.4</v>
       </c>
       <c r="M202" t="n">
-        <v>11.8</v>
+        <v>5.2</v>
       </c>
       <c r="N202" t="n">
-        <v>11.2</v>
+        <v>5</v>
       </c>
       <c r="O202" t="n">
-        <v>10.6</v>
+        <v>4.8</v>
       </c>
       <c r="P202" t="n">
-        <v>10</v>
+        <v>4.6</v>
       </c>
     </row>
     <row r="203">
@@ -52397,46 +52397,46 @@
         <v>407</v>
       </c>
       <c r="C203" t="n">
-        <v>6.6</v>
+        <v>18.4</v>
       </c>
       <c r="D203" t="n">
-        <v>6.5</v>
+        <v>17.6</v>
       </c>
       <c r="E203" t="n">
-        <v>6.3</v>
+        <v>16.7</v>
       </c>
       <c r="F203" t="n">
-        <v>6.3</v>
+        <v>15.8</v>
       </c>
       <c r="G203" t="n">
-        <v>6.1</v>
+        <v>15.1</v>
       </c>
       <c r="H203" t="n">
-        <v>6</v>
+        <v>14.5</v>
       </c>
       <c r="I203" t="n">
-        <v>5.9</v>
+        <v>14</v>
       </c>
       <c r="J203" t="n">
-        <v>5.8</v>
+        <v>13.4</v>
       </c>
       <c r="K203" t="n">
-        <v>5.6</v>
+        <v>12.9</v>
       </c>
       <c r="L203" t="n">
-        <v>5.4</v>
+        <v>12.3</v>
       </c>
       <c r="M203" t="n">
-        <v>5.2</v>
+        <v>11.8</v>
       </c>
       <c r="N203" t="n">
-        <v>5</v>
+        <v>11.2</v>
       </c>
       <c r="O203" t="n">
-        <v>4.8</v>
+        <v>10.6</v>
       </c>
       <c r="P203" t="n">
-        <v>4.6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="204">
